--- a/data/process_12/inputData.xlsx
+++ b/data/process_12/inputData.xlsx
@@ -9,31 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P_12" sheetId="11" r:id="rId1"/>
+    <sheet name="w" sheetId="11" r:id="rId1"/>
+    <sheet name="P_12" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Yes</t>
   </si>
@@ -189,6 +181,18 @@
   </si>
   <si>
     <t>VL10B</t>
+  </si>
+  <si>
+    <t>UB Stock Transfer Order</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Inbound Delivery No.</t>
+  </si>
+  <si>
+    <t>Putaway Quantity</t>
   </si>
 </sst>
 </file>
@@ -399,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,6 +435,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -770,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +893,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -832,7 +902,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="51" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
@@ -846,14 +916,14 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5">
         <v>1235</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -861,14 +931,14 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15">
         <v>1000</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -876,14 +946,14 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5">
         <v>999</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -891,14 +961,14 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="5">
         <v>1000</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -906,14 +976,14 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -921,14 +991,14 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5">
         <v>2000</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -936,14 +1006,14 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5">
         <v>1000</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -951,14 +1021,14 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>1030</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -966,14 +1036,14 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5">
         <v>1030</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -981,12 +1051,12 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -994,14 +1064,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1009,14 +1079,14 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1024,12 +1094,12 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1037,12 +1107,12 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1050,12 +1120,12 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1063,14 +1133,14 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1153,14 +1223,14 @@
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1168,14 +1238,14 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5">
         <v>2000</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1183,14 +1253,14 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="5">
         <v>1000194786</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1202,7 +1272,7 @@
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -1211,7 +1281,7 @@
       <c r="E27" s="9">
         <v>44232</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="56" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="4"/>
@@ -1221,14 +1291,14 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="24"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1270,22 +1340,140 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1235</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="23">
+        <v>999</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <v>1290</v>
+      </c>
+      <c r="I2" s="32">
+        <v>1040</v>
+      </c>
+      <c r="J2" s="34">
+        <v>1040</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="40">
+        <v>1</v>
+      </c>
+      <c r="N2" s="42">
+        <v>1000194743</v>
+      </c>
+      <c r="O2" s="44">
+        <v>183369702</v>
+      </c>
+      <c r="P2" s="46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFE358E4433FD84A9A34523DAB00F7EB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb8f3f11fdb443e8b4b1a57d51f2ae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="627e885a-4408-46af-8180-28ca0c06a43e" xmlns:ns3="bbd7ad43-7622-4e03-bc1d-5f6f87a52367" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9878c85569a301255d672f426fac71ea" ns2:_="" ns3:_="">
     <xsd:import namespace="627e885a-4408-46af-8180-28ca0c06a43e"/>
@@ -1496,32 +1684,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
-    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E02152-A7A6-4163-B9A8-7E722AB35DEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1538,4 +1716,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
+    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>